--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1313728.481772297</v>
+        <v>1309674.356012918</v>
       </c>
     </row>
     <row r="7">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>293.3034667825091</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>219.0575315345307</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,10 +676,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>22.37128450011245</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>127.2748517142198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>142.4741679217957</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>63.25786276724374</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1062,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1074,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>13.02719212039631</v>
       </c>
       <c r="W7" t="n">
-        <v>41.15063074750183</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>117.0602861317418</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>34.40787678419761</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1296,22 +1296,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>103.0130623645179</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>43.3482415786093</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>13.03790159951639</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>206.7582264966179</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>34.22340015155905</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>135.3135037226519</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2374,10 +2374,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2481,16 +2481,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805175732</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2529,13 +2529,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>176.76214411214</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323832</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046924</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.405450327293</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>111.5512144998717</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>107.4021082756238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3195,16 +3195,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>79.41314830963806</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>216.4795114578131</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>176.1811323375794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>40.1538165833283</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>111.3062202753132</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>160.6789846282037</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>80.33989744908958</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2057.32755894284</v>
+        <v>1855.428721271371</v>
       </c>
       <c r="C2" t="n">
-        <v>1688.365042002428</v>
+        <v>1855.428721271371</v>
       </c>
       <c r="D2" t="n">
-        <v>1330.099343395678</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974333</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078258</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345445</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4330,22 +4330,22 @@
         <v>51.24678656800312</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
         <v>2360.886721764998</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="X2" t="n">
-        <v>2353.59368700598</v>
+        <v>1855.428721271371</v>
       </c>
       <c r="Y2" t="n">
-        <v>2353.59368700598</v>
+        <v>1855.428721271371</v>
       </c>
     </row>
     <row r="3">
@@ -4412,19 +4412,19 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310615</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625333</v>
+        <v>777.606906050775</v>
       </c>
       <c r="M3" t="n">
-        <v>1209.253210781439</v>
+        <v>1140.868925009995</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560478</v>
+        <v>1528.15405360694</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.50262973664</v>
+        <v>1860.224488783102</v>
       </c>
       <c r="P3" t="n">
         <v>2422.685363568937</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>813.841548125043</v>
+        <v>793.4311400478917</v>
       </c>
       <c r="C4" t="n">
-        <v>644.9053651971361</v>
+        <v>770.8338829770711</v>
       </c>
       <c r="D4" t="n">
-        <v>494.7887257848004</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="E4" t="n">
-        <v>346.8756322024072</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800312</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800312</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4509,31 +4509,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074498</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269233</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U4" t="n">
-        <v>1413.467639269233</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="V4" t="n">
-        <v>1413.467639269233</v>
+        <v>793.4311400478917</v>
       </c>
       <c r="W4" t="n">
-        <v>1124.050469232272</v>
+        <v>793.4311400478917</v>
       </c>
       <c r="X4" t="n">
-        <v>1124.050469232272</v>
+        <v>793.4311400478917</v>
       </c>
       <c r="Y4" t="n">
-        <v>995.4900129552827</v>
+        <v>793.4311400478917</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D5" t="n">
         <v>1617.939223126803</v>
@@ -4564,19 +4564,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4591,28 +4591,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.546497866152</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>2489.080739605072</v>
+        <v>2008.078555102614</v>
       </c>
       <c r="Y5" t="n">
-        <v>2489.080739605072</v>
+        <v>1617.939223126803</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>943.7005868594143</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>774.7644039315074</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>624.6477645191717</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1615.697475415547</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="W7" t="n">
-        <v>1574.131181731201</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X7" t="n">
-        <v>1346.141630833184</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y7" t="n">
-        <v>1125.349051689654</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1250.836169983545</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C8" t="n">
-        <v>1250.836169983545</v>
+        <v>939.4077790033366</v>
       </c>
       <c r="D8" t="n">
-        <v>892.5704713767946</v>
+        <v>939.4077790033366</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>939.4077790033366</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3290.850390514021</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3084.872642898244</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3084.872642898244</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2753.809755554673</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2401.041100284559</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2027.575342023478</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1637.436010047667</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4874,13 +4874,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4889,16 +4889,16 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>332.773976541745</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>163.8377936138381</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>163.8377936138381</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8377936138381</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1252.621741450493</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>963.2045714135322</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>735.2150205155149</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>514.4224413719847</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5038,10 +5038,10 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192586</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075805</v>
@@ -5059,34 +5059,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>251.5626541092274</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>746.8882603249859</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797186</v>
@@ -5202,10 +5202,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,28 +5293,28 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756265</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021782</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797186</v>
@@ -5439,10 +5439,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5472,16 +5472,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5536,28 +5536,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>671.2000270096665</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>189.0729639753273</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>189.0729639753273</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797186</v>
@@ -5676,10 +5676,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5758,13 +5758,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,31 +5773,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>916.2946447138411</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C22" t="n">
-        <v>916.2946447138411</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.2946447138411</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5983,46 +5983,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N24" t="n">
-        <v>1670.092171589158</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O24" t="n">
-        <v>2222.001901828445</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400673</v>
       </c>
       <c r="C25" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121605</v>
       </c>
       <c r="D25" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121605</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121605</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121605</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4262.384993990607</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>4262.384993990607</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>4262.384993990607</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W25" t="n">
-        <v>3972.967823953646</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X25" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138372</v>
       </c>
       <c r="Y25" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703071</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797186</v>
@@ -6256,22 +6256,22 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745237</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400664</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797186</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854701</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648814</v>
       </c>
       <c r="W28" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138363</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703062</v>
       </c>
     </row>
     <row r="29">
@@ -6451,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.58852738579</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913445</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>2715.159942084666</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>2854.440648734749</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>3482.038612289356</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>983.3556038098237</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>814.4194208819168</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>664.3027814695811</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>516.389687887188</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>369.4997403892776</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>202.3036411041575</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924458</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718571</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1613.786198681611</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1385.796647783593</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>1165.004068640063</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6706,13 +6706,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>2716.927329289434</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>3212.252935505192</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>3809.631423131744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>4437.229386686351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>4437.229386686351</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4437.229386686351</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3047.734188001555</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C34" t="n">
-        <v>2878.798005073648</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D34" t="n">
-        <v>2728.681365661313</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="E34" t="n">
-        <v>2728.681365661313</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>256.118667722925</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>256.118667722925</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>4222.26644111619</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>4222.26644111619</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V34" t="n">
-        <v>3967.581952910303</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W34" t="n">
-        <v>3678.164782873342</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X34" t="n">
-        <v>3450.175231975325</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y34" t="n">
-        <v>3229.382652831795</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="35">
@@ -6925,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
         <v>261.0127623330919</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1794.716390662386</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.299220625425</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727408</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3047.734188001555</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C40" t="n">
-        <v>2878.798005073648</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D40" t="n">
-        <v>2728.681365661313</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E40" t="n">
-        <v>2728.681365661313</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328841</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.255922673039</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V40" t="n">
-        <v>3677.571434467152</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W40" t="n">
-        <v>3388.154264430192</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X40" t="n">
-        <v>3160.164713532175</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y40" t="n">
-        <v>3047.734188001555</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>633.9926444679666</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>483.8760050556308</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>483.8760050556308</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>483.8760050556308</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>316.6799057705107</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>174.9680746127088</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8063,19 +8063,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>186.4490126143859</v>
       </c>
       <c r="M3" t="n">
-        <v>255.5240487471575</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>105.2672314396031</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>116.6691671648112</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23904,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>127.2568112467075</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>45.37941682721009</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>145.6085800303782</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>13.3019692955605</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>138.4949402405115</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24417,13 +24417,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>40.64330621514821</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>65.54986409393547</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>114.1584408891654</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>32.89260457060008</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25083,16 +25083,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>60.88156453658583</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9259388694751749</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -25323,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>211.9838267404997</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>107.2784330767816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9259388694759565</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>937367.7491186921</v>
+        <v>937367.749118692</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>937367.749118692</v>
+        <v>937367.7491186919</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>937367.7491186921</v>
+        <v>937367.7491186918</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>937367.7491186921</v>
+        <v>937367.7491186919</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>937367.7491186921</v>
+        <v>937367.749118692</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>937367.749118692</v>
+        <v>937367.7491186919</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>937367.7491186921</v>
+        <v>937367.749118692</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>937367.749118692</v>
+        <v>937367.7491186919</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="C2" t="n">
         <v>492625.06191857</v>
@@ -26325,37 +26325,37 @@
         <v>484287.9598140037</v>
       </c>
       <c r="F2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="G2" t="n">
-        <v>484287.9598140034</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="H2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="I2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="J2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="K2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>484287.9598140036</v>
-      </c>
-      <c r="K2" t="n">
-        <v>484287.9598140037</v>
-      </c>
-      <c r="L2" t="n">
-        <v>484287.9598140037</v>
       </c>
       <c r="M2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="N2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140038</v>
       </c>
       <c r="O2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="P2" t="n">
-        <v>484287.9598140034</v>
+        <v>484287.9598140035</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121057</v>
+        <v>203438.7416121058</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>49110.09270605445</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312018</v>
+        <v>89134.17909312021</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312021</v>
+        <v>89134.17909312015</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
@@ -26450,7 +26450,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
         <v>9947.144321768897</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-852994.9045044165</v>
+        <v>-852994.9045044162</v>
       </c>
       <c r="C6" t="n">
-        <v>92118.20065195084</v>
+        <v>92118.20065195073</v>
       </c>
       <c r="D6" t="n">
         <v>295556.9422640565</v>
       </c>
       <c r="E6" t="n">
-        <v>47805.82386097274</v>
+        <v>47458.44460661569</v>
       </c>
       <c r="F6" t="n">
-        <v>373218.2856683275</v>
+        <v>372870.9064139706</v>
       </c>
       <c r="G6" t="n">
-        <v>373218.2856683275</v>
+        <v>372870.9064139706</v>
       </c>
       <c r="H6" t="n">
-        <v>373218.2856683274</v>
+        <v>372870.9064139706</v>
       </c>
       <c r="I6" t="n">
-        <v>373218.2856683276</v>
+        <v>372870.9064139707</v>
       </c>
       <c r="J6" t="n">
-        <v>205613.1078583451</v>
+        <v>205265.728603988</v>
       </c>
       <c r="K6" t="n">
-        <v>324108.1929622733</v>
+        <v>323760.8137079161</v>
       </c>
       <c r="L6" t="n">
-        <v>373218.2856683277</v>
+        <v>372870.9064139706</v>
       </c>
       <c r="M6" t="n">
-        <v>288163.2577328157</v>
+        <v>287815.8784784589</v>
       </c>
       <c r="N6" t="n">
-        <v>373218.2856683277</v>
+        <v>372870.9064139708</v>
       </c>
       <c r="O6" t="n">
-        <v>373218.2856683275</v>
+        <v>372870.9064139706</v>
       </c>
       <c r="P6" t="n">
-        <v>373218.2856683274</v>
+        <v>372870.9064139705</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26792,10 +26792,10 @@
         <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757589</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>190.8166233022538</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>89.4303748809715</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>135.6255100861522</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>144.8755365985154</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>91.30980163787497</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>240.2596737416849</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>306.4732379112253</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27782,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>239.1104512034317</v>
       </c>
       <c r="W7" t="n">
-        <v>245.3723675890892</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>289.8157596099696</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>74.77988500397822</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>149.1245809593101</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29097,7 +29097,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29255,7 +29255,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29486,7 +29486,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -31041,34 +31041,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31077,13 +31077,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,34 +31120,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31156,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31205,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,37 +31840,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>146.0225991093093</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>514.8598010172138</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,40 +32074,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>250.1723312270672</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,40 +32311,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>233.3139244897928</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32548,16 +32548,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32800,16 +32800,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>232.75998908852</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33268,22 +33268,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>282.8216163968498</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33432,7 +33432,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
         <v>926.5868626460027</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>359.1374415194858</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,10 +33751,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33909,7 +33909,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236507</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34444,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34701,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434849</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>484.1293732522361</v>
       </c>
       <c r="M3" t="n">
-        <v>622.4553810291981</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>640.584832100039</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977097</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>8.18116013495035</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.1905571410457</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>94.75954470991863</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36448,16 +36448,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>98.78558167418976</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,22 +36916,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>140.6875824748315</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37080,7 +37080,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>219.1556674334643</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,10 +37399,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1309674.356012918</v>
+        <v>1311434.886315703</v>
       </c>
     </row>
     <row r="7">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>219.0575315345307</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>309.8305163479592</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -715,7 +715,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>22.37128450011245</v>
+        <v>130.4912211570062</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,10 +834,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>194.5727296124811</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>63.25786276724374</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1071,7 +1071,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>135.8241034250917</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>13.02719212039631</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>117.0602861317418</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1186,13 +1186,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>68.11015198958181</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>56.04917322725558</v>
       </c>
       <c r="D13" t="n">
-        <v>43.3482415786093</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,10 +1770,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>70.04554881124335</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="18">
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>56.04917322725558</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2016,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>13.03790159951639</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34.22340015155905</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2250,7 +2250,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>108.5813113004299</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>27.02919805175732</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>181.3074675142875</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323832</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>101.6969570046924</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>91.89996056624759</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.405450327293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="H34" t="n">
-        <v>79.41314830963806</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>9.146142788174922</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>40.1538165833283</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3675,7 +3675,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>94.30373791808204</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>20.9284728855285</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,55 +4306,55 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1855.428721271371</v>
+        <v>1215.247820471429</v>
       </c>
       <c r="C2" t="n">
-        <v>1855.428721271371</v>
+        <v>846.285303531017</v>
       </c>
       <c r="D2" t="n">
-        <v>1634.158487398107</v>
+        <v>846.285303531017</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>846.285303531017</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345445</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
         <v>2437.640120926626</v>
@@ -4363,19 +4363,19 @@
         <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.894479532451</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.894479532451</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W2" t="n">
-        <v>2228.894479532451</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="X2" t="n">
-        <v>1855.428721271371</v>
+        <v>1601.84766053555</v>
       </c>
       <c r="Y2" t="n">
-        <v>1855.428721271371</v>
+        <v>1601.84766053555</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
@@ -4415,25 +4415,25 @@
         <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>777.606906050775</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1140.868925009995</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1528.15405360694</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.224488783102</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568937</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4448,10 +4448,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793.4311400478917</v>
+        <v>795.96224605237</v>
       </c>
       <c r="C4" t="n">
-        <v>770.8338829770711</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>620.7172435647353</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
@@ -4515,25 +4515,25 @@
         <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.233965749941</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U4" t="n">
-        <v>1048.115628253779</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V4" t="n">
-        <v>793.4311400478917</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="W4" t="n">
-        <v>793.4311400478917</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="X4" t="n">
-        <v>793.4311400478917</v>
+        <v>1016.7548251959</v>
       </c>
       <c r="Y4" t="n">
-        <v>793.4311400478917</v>
+        <v>795.96224605237</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1617.939223126803</v>
+        <v>2244.12194900241</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1875.159432061998</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1516.893733455248</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1131.105480857004</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>720.1195760673961</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>305.0471259123926</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X5" t="n">
-        <v>2008.078555102614</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="Y5" t="n">
-        <v>1617.939223126803</v>
+        <v>2630.721789066532</v>
       </c>
     </row>
     <row r="6">
@@ -4637,16 +4637,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1700.268026780272</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="V7" t="n">
-        <v>1914.135768168901</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W7" t="n">
-        <v>1624.71859813194</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1396.729047233923</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>1175.936468090393</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1308.370295943748</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>939.4077790033366</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>939.4077790033366</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>939.4077790033366</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>3146.517019813456</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4953,13 +4953,13 @@
         <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -5038,49 +5038,49 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5120,22 +5120,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>768.5380889459582</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C13" t="n">
-        <v>599.6019060180513</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
         <v>555.8158034133954</v>
@@ -5202,10 +5202,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817745</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919728</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.1865537761979</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5305,25 +5305,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5354,22 +5354,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797186</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="17">
@@ -5512,28 +5512,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852254</v>
@@ -5542,22 +5542,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.9288273958734</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C19" t="n">
-        <v>633.9926444679666</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>483.8760050556308</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>335.9629114732377</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>189.0729639753273</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>189.0729639753273</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797186</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369643</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261132</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>727.9786782557277</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C22" t="n">
-        <v>559.0424953278208</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>408.925855915485</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
         <v>261.0127623330919</v>
@@ -5937,25 +5937,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="23">
@@ -5983,19 +5983,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6007,31 +6007,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400673</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121605</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121605</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121605</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121605</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648815</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611855</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138372</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703071</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400664</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C28" t="n">
-        <v>411.1294017454277</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D28" t="n">
-        <v>261.0127623330919</v>
+        <v>481.447947124485</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>333.5348535420919</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>186.6449060441816</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>186.6449060441816</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510504</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854701</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648814</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611854</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138363</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703062</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6484,13 +6484,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6697,22 +6697,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>869.9745311434712</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>701.0383482155643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>550.9217088032285</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E34" t="n">
-        <v>403.0086152208354</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F34" t="n">
-        <v>256.118667722925</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="G34" t="n">
-        <v>256.118667722925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>727.9786782557277</v>
+        <v>580.8993044876643</v>
       </c>
       <c r="C37" t="n">
-        <v>559.0424953278208</v>
+        <v>411.9631215597574</v>
       </c>
       <c r="D37" t="n">
-        <v>408.925855915485</v>
+        <v>411.9631215597574</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>411.9631215597574</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.052681478291</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038296</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797697</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910804</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.10824923516</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258101</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602299</v>
       </c>
       <c r="V37" t="n">
-        <v>1647.826443164475</v>
+        <v>1500.747069396412</v>
       </c>
       <c r="W37" t="n">
-        <v>1358.409273127515</v>
+        <v>1211.329899359451</v>
       </c>
       <c r="X37" t="n">
-        <v>1130.419722229497</v>
+        <v>983.3403484614341</v>
       </c>
       <c r="Y37" t="n">
-        <v>909.6271430859674</v>
+        <v>762.547769317904</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2049.400878868273</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.716390662386</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>114.9565346495158</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>114.9565346495158</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7654,16 +7654,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8063,13 +8063,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>186.4490126143859</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>0.9556134883072218</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>111.1976478713723</v>
       </c>
       <c r="D13" t="n">
-        <v>105.2672314396031</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>147.3599015160449</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="18">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>127.2568112467075</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>145.6085800303782</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>110.0033420516649</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>138.4949402405115</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>104.8770068749566</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>65.54986409393547</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>48.3947522799763</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24846,16 +24846,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>43.26526345294987</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="H34" t="n">
-        <v>60.88156453658583</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347563</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>211.9838267404997</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>119.3662399606954</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>9.000252501566052</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>937367.749118692</v>
+        <v>937367.7491186919</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>937367.7491186919</v>
+        <v>937367.749118692</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>937367.749118692</v>
+        <v>937367.7491186919</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>937367.7491186919</v>
+        <v>937367.7491186921</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>937367.7491186918</v>
+        <v>937367.749118692</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>937367.7491186919</v>
+        <v>937367.7491186918</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>937367.749118692</v>
+        <v>937367.7491186919</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>937367.7491186919</v>
+        <v>937367.7491186918</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>937367.749118692</v>
+        <v>937367.7491186919</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>937367.7491186919</v>
+        <v>937367.7491186921</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.0619185702</v>
       </c>
       <c r="C2" t="n">
         <v>492625.06191857</v>
@@ -26322,40 +26322,40 @@
         <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="F2" t="n">
         <v>484287.9598140037</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="H2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="I2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="H2" t="n">
-        <v>484287.9598140036</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>484287.9598140037</v>
-      </c>
-      <c r="J2" t="n">
-        <v>484287.9598140035</v>
-      </c>
-      <c r="K2" t="n">
-        <v>484287.9598140036</v>
       </c>
       <c r="L2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="M2" t="n">
+        <v>484287.9598140034</v>
+      </c>
+      <c r="N2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="N2" t="n">
-        <v>484287.9598140038</v>
-      </c>
       <c r="O2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="P2" t="n">
         <v>484287.9598140036</v>
-      </c>
-      <c r="P2" t="n">
-        <v>484287.9598140035</v>
       </c>
     </row>
     <row r="3">
@@ -26368,16 +26368,16 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121058</v>
+        <v>203438.741612106</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
         <v>49110.09270605445</v>
@@ -26420,10 +26420,10 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312021</v>
+        <v>89134.17909312017</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.17909312018</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-852994.9045044162</v>
+        <v>-852994.904504416</v>
       </c>
       <c r="C6" t="n">
-        <v>92118.20065195073</v>
+        <v>92118.20065195064</v>
       </c>
       <c r="D6" t="n">
         <v>295556.9422640565</v>
       </c>
       <c r="E6" t="n">
-        <v>47458.44460661569</v>
+        <v>47771.08593553687</v>
       </c>
       <c r="F6" t="n">
-        <v>372870.9064139706</v>
+        <v>373183.5477428919</v>
       </c>
       <c r="G6" t="n">
-        <v>372870.9064139706</v>
+        <v>373183.547742892</v>
       </c>
       <c r="H6" t="n">
-        <v>372870.9064139706</v>
+        <v>373183.547742892</v>
       </c>
       <c r="I6" t="n">
-        <v>372870.9064139707</v>
+        <v>373183.5477428916</v>
       </c>
       <c r="J6" t="n">
-        <v>205265.728603988</v>
+        <v>205578.3699329095</v>
       </c>
       <c r="K6" t="n">
-        <v>323760.8137079161</v>
+        <v>324073.4550368375</v>
       </c>
       <c r="L6" t="n">
-        <v>372870.9064139706</v>
+        <v>373183.5477428919</v>
       </c>
       <c r="M6" t="n">
-        <v>287815.8784784589</v>
+        <v>288128.51980738</v>
       </c>
       <c r="N6" t="n">
-        <v>372870.9064139708</v>
+        <v>373183.5477428919</v>
       </c>
       <c r="O6" t="n">
-        <v>372870.9064139706</v>
+        <v>373183.5477428919</v>
       </c>
       <c r="P6" t="n">
-        <v>372870.9064139705</v>
+        <v>373183.5477428919</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.816623302254</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>190.8166233022538</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>135.6255100861522</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>97.04552939375225</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27539,13 +27539,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>144.8755365985154</v>
+        <v>36.75559994162168</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27596,16 +27596,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>100.0350347748394</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>306.4732379112253</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>53.94492190635023</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>239.1104512034317</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>289.8157596099696</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>259.6421064805531</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -29097,7 +29097,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29255,7 +29255,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>-1.676039100824228e-12</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29486,7 +29486,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>-4.713266813875332e-12</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30167,7 +30167,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,25 +31840,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>514.8598010172138</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32074,10 +32074,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32311,10 +32311,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32548,10 +32548,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,22 +32791,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>169.9530009943068</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33909,7 +33909,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236507</v>
@@ -34137,7 +34137,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34783,13 +34783,13 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>484.1293732522361</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>392.1527130811811</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
@@ -34798,10 +34798,10 @@
         <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>376.3054212373396</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326294864</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37557,7 +37557,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37785,7 +37785,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
